--- a/code/random_forest-outfiles/min_impurity_decrease after final/min_impurity_decrease after final.xlsx
+++ b/code/random_forest-outfiles/min_impurity_decrease after final/min_impurity_decrease after final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\min_impurity_decrease after final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7CA0F1-01E8-4BF9-951D-9C706C7B658D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04182666-73EF-46B3-A558-E2AC6412201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4333,7 +4333,7 @@
   <dimension ref="A31:AF236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
